--- a/Input/Temp_balanced_DPT_scen2.xlsx
+++ b/Input/Temp_balanced_DPT_scen2.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C788"/>
+  <dimension ref="A1:C790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12271,6 +12271,36 @@
         </is>
       </c>
       <c r="C788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12285,31 +12315,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D788"/>
+  <dimension ref="A1:D790"/>
   <sheetViews>
-    <sheetView topLeftCell="A772" workbookViewId="0">
-      <selection activeCell="F786" sqref="F786"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Railhead</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Demand</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
@@ -26478,6 +26508,42 @@
         <v>0</v>
       </c>
       <c r="D788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>0</v>
+      </c>
+      <c r="D789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
+        <v>0</v>
+      </c>
+      <c r="D790" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26492,26 +26558,26 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C788"/>
+  <dimension ref="A1:C790"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Railhead</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Supply</t>
         </is>
@@ -38319,6 +38385,36 @@
         </is>
       </c>
       <c r="C788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38333,31 +38429,31 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D788"/>
+  <dimension ref="A1:D790"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A763" workbookViewId="0">
-      <selection activeCell="F786" sqref="F786"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Railhead</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Demand</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Capacity</t>
         </is>
@@ -52526,6 +52622,42 @@
         <v>0</v>
       </c>
       <c r="D788" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>0</v>
+      </c>
+      <c r="D789" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>AJIT</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
+        <v>0</v>
+      </c>
+      <c r="D790" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Input/Temp_balanced_DPT_scen2.xlsx
+++ b/Input/Temp_balanced_DPT_scen2.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C790"/>
+  <dimension ref="A1:C792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12301,6 +12301,24 @@
         </is>
       </c>
       <c r="C790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr"/>
+      <c r="B791" t="inlineStr"/>
+      <c r="C791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr"/>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12315,7 +12333,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D790"/>
+  <dimension ref="A1:D792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26544,6 +26562,30 @@
         <v>0</v>
       </c>
       <c r="D790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr"/>
+      <c r="B791" t="inlineStr"/>
+      <c r="C791" t="n">
+        <v>0</v>
+      </c>
+      <c r="D791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr"/>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D792" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26558,7 +26600,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C790"/>
+  <dimension ref="A1:C792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38415,6 +38457,24 @@
         </is>
       </c>
       <c r="C790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr"/>
+      <c r="B791" t="inlineStr"/>
+      <c r="C791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr"/>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
         <v>0</v>
       </c>
     </row>
@@ -38429,7 +38489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D790"/>
+  <dimension ref="A1:D792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -52658,6 +52718,30 @@
         <v>0</v>
       </c>
       <c r="D790" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr"/>
+      <c r="B791" t="inlineStr"/>
+      <c r="C791" t="n">
+        <v>0</v>
+      </c>
+      <c r="D791" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr"/>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D792" t="n">
         <v>0</v>
       </c>
     </row>
